--- a/data/trans_orig/CoTrAQ_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ_R2-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>32260</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22391</v>
+        <v>22580</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45605</v>
+        <v>45295</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1208333501639366</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08386616340755237</v>
+        <v>0.08457685057807696</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1708182560917924</v>
+        <v>0.1696553500930666</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -763,19 +763,19 @@
         <v>19770</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12396</v>
+        <v>12054</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30193</v>
+        <v>28914</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1279082120033295</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08019851969456833</v>
+        <v>0.07798862725176506</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1953416999410321</v>
+        <v>0.1870686052407424</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -784,19 +784,19 @@
         <v>52030</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39806</v>
+        <v>38813</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68305</v>
+        <v>68186</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.123427408216776</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09442924213368845</v>
+        <v>0.09207444633533571</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1620364215427013</v>
+        <v>0.1617536937238275</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>234721</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>221376</v>
+        <v>221686</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>244590</v>
+        <v>244401</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8791666498360634</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8291817439082078</v>
+        <v>0.8303446499069336</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9161338365924477</v>
+        <v>0.9154231494219232</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>126</v>
@@ -834,19 +834,19 @@
         <v>134793</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>124370</v>
+        <v>125649</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>142167</v>
+        <v>142509</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8720917879966704</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.804658300058968</v>
+        <v>0.8129313947592577</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9198014803054317</v>
+        <v>0.922011372748235</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>354</v>
@@ -855,19 +855,19 @@
         <v>369514</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>353239</v>
+        <v>353358</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>381738</v>
+        <v>382731</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.876572591783224</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8379635784572986</v>
+        <v>0.8382463062761726</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9055707578663115</v>
+        <v>0.9079255536646643</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>57458</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43628</v>
+        <v>44001</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72669</v>
+        <v>74064</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1443064775882729</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1095738210544611</v>
+        <v>0.1105099922664772</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1825114586114227</v>
+        <v>0.1860142731692886</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -980,19 +980,19 @@
         <v>41898</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30881</v>
+        <v>30113</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56697</v>
+        <v>54761</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1624893137350019</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1197643479379604</v>
+        <v>0.1167852296950613</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2198828017570838</v>
+        <v>0.2123735472550862</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -1001,19 +1001,19 @@
         <v>99356</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80580</v>
+        <v>79531</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>118321</v>
+        <v>119786</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1514533913695548</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1228333103540144</v>
+        <v>0.1212341502027576</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.180362766498048</v>
+        <v>0.1825965309535454</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>340705</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>325494</v>
+        <v>324099</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>354535</v>
+        <v>354162</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.855693522411727</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8174885413885774</v>
+        <v>0.8139857268307116</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8904261789455389</v>
+        <v>0.8894900077335228</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>195</v>
@@ -1051,19 +1051,19 @@
         <v>215954</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>201155</v>
+        <v>203091</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>226971</v>
+        <v>227739</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.837510686264998</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7801171982429163</v>
+        <v>0.7876264527449138</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8802356520620396</v>
+        <v>0.8832147703049388</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>509</v>
@@ -1072,19 +1072,19 @@
         <v>556659</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>537694</v>
+        <v>536229</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>575435</v>
+        <v>576484</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8485466086304453</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8196372335019519</v>
+        <v>0.8174034690464546</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8771666896459855</v>
+        <v>0.8787658497972425</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>42108</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30470</v>
+        <v>30281</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57090</v>
+        <v>55586</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1372959323840644</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09935081606662155</v>
+        <v>0.09873552383274833</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1861479824412466</v>
+        <v>0.1812423635532235</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -1197,19 +1197,19 @@
         <v>37989</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27251</v>
+        <v>26853</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50866</v>
+        <v>51578</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1857501570888488</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1332465179639497</v>
+        <v>0.1312969890335161</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2487079870679081</v>
+        <v>0.2521904319329926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -1218,19 +1218,19 @@
         <v>80097</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63165</v>
+        <v>63958</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99636</v>
+        <v>99009</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1566808993069849</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1235599757959751</v>
+        <v>0.125110596070488</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1949019519150798</v>
+        <v>0.1936749873174572</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>264584</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>249602</v>
+        <v>251106</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>276222</v>
+        <v>276411</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8627040676159357</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8138520175587536</v>
+        <v>0.8187576364467766</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9006491839333784</v>
+        <v>0.9012644761672517</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>150</v>
@@ -1268,19 +1268,19 @@
         <v>166530</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>153653</v>
+        <v>152941</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>177268</v>
+        <v>177666</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8142498429111512</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7512920129320906</v>
+        <v>0.7478095680670074</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.86675348203605</v>
+        <v>0.8687030109664838</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>390</v>
@@ -1289,19 +1289,19 @@
         <v>431114</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>411575</v>
+        <v>412202</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>448046</v>
+        <v>447253</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8433191006930151</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.80509804808492</v>
+        <v>0.8063250126825429</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8764400242040248</v>
+        <v>0.8748894039295121</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>51208</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39007</v>
+        <v>38456</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65188</v>
+        <v>67409</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1267404154884301</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09654230086055834</v>
+        <v>0.09517867559338267</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1613410441716786</v>
+        <v>0.1668366912663681</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -1414,19 +1414,19 @@
         <v>53910</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40958</v>
+        <v>40330</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68123</v>
+        <v>68764</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1892823799067604</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1438085598980574</v>
+        <v>0.1416034141872779</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2391862775489401</v>
+        <v>0.2414389029347111</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -1435,19 +1435,19 @@
         <v>105118</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87114</v>
+        <v>86677</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>125892</v>
+        <v>125031</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1525989359600548</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1264623271841838</v>
+        <v>0.1258288191398454</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1827567465094899</v>
+        <v>0.1815061278485829</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>352831</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>338851</v>
+        <v>336630</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>365032</v>
+        <v>365583</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8732595845115699</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8386589558283218</v>
+        <v>0.8331633087336322</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9034576991394416</v>
+        <v>0.9048213244066173</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>224</v>
@@ -1485,19 +1485,19 @@
         <v>230901</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>216688</v>
+        <v>216047</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>243853</v>
+        <v>244481</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8107176200932397</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7608137224510599</v>
+        <v>0.7585610970652887</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8561914401019427</v>
+        <v>0.8583965858127216</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>565</v>
@@ -1506,19 +1506,19 @@
         <v>583733</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>562959</v>
+        <v>563820</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>601737</v>
+        <v>602174</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8474010640399452</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8172432534905101</v>
+        <v>0.8184938721514171</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8735376728158162</v>
+        <v>0.8741711808601547</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>183033</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>156291</v>
+        <v>158111</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>208641</v>
+        <v>210355</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1330304972273066</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1135938181603708</v>
+        <v>0.1149168300121982</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.151642603299543</v>
+        <v>0.1528877348235676</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>137</v>
@@ -1631,19 +1631,19 @@
         <v>153567</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>132329</v>
+        <v>132752</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>178499</v>
+        <v>180122</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1703000622688544</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1467473428144407</v>
+        <v>0.147216606164275</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.197948588015199</v>
+        <v>0.1997483089284087</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>307</v>
@@ -1652,19 +1652,19 @@
         <v>336601</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>303242</v>
+        <v>302557</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>372747</v>
+        <v>375346</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.147786091608714</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1331397933083776</v>
+        <v>0.1328389583477025</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1636562063974429</v>
+        <v>0.1647972711498612</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>1192843</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1167235</v>
+        <v>1165521</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1219585</v>
+        <v>1217765</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8669695027726934</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8483573967004571</v>
+        <v>0.8471122651764323</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8864061818396293</v>
+        <v>0.8850831699878017</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>695</v>
@@ -1702,19 +1702,19 @@
         <v>748178</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>723246</v>
+        <v>721623</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>769416</v>
+        <v>768993</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8296999377311457</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.802051411984801</v>
+        <v>0.8002516910715913</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8532526571855593</v>
+        <v>0.852783393835725</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1818</v>
@@ -1723,19 +1723,19 @@
         <v>1941020</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1904874</v>
+        <v>1902275</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1974379</v>
+        <v>1975064</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.852213908391286</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8363437936025571</v>
+        <v>0.8352027288501388</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8668602066916224</v>
+        <v>0.8671610416522975</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>57103</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44205</v>
+        <v>43517</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71813</v>
+        <v>70547</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.236625863148556</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1831797759038337</v>
+        <v>0.1803299471241391</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2975823705293865</v>
+        <v>0.2923385089974502</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -2088,19 +2088,19 @@
         <v>48205</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36850</v>
+        <v>37246</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59917</v>
+        <v>60109</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2935178359808958</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2243783766191286</v>
+        <v>0.2267911844770586</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.364829397710912</v>
+        <v>0.3660013560357406</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>103</v>
@@ -2109,19 +2109,19 @@
         <v>105308</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88723</v>
+        <v>88251</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>123606</v>
+        <v>123433</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2596647774279552</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2187715110908702</v>
+        <v>0.2176075425966117</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3047839379913746</v>
+        <v>0.3043570486810409</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>184218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>169508</v>
+        <v>170774</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>197116</v>
+        <v>197804</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.763374136851444</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7024176294706136</v>
+        <v>0.7076614910025496</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8168202240961663</v>
+        <v>0.8196700528758608</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>122</v>
@@ -2159,19 +2159,19 @@
         <v>116027</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104315</v>
+        <v>104123</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>127382</v>
+        <v>126986</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7064821640191042</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6351706022890882</v>
+        <v>0.6339986439642594</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7756216233808716</v>
+        <v>0.7732088155229414</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>297</v>
@@ -2180,19 +2180,19 @@
         <v>300245</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>281947</v>
+        <v>282120</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>316830</v>
+        <v>317302</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7403352225720448</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6952160620086255</v>
+        <v>0.6956429513189593</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7812284889091299</v>
+        <v>0.7823924574033883</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>89723</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72477</v>
+        <v>75798</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>108154</v>
+        <v>106429</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2171175871212201</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1753840249002129</v>
+        <v>0.1834202279175777</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2617175291530675</v>
+        <v>0.2575431694924376</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -2305,19 +2305,19 @@
         <v>68206</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55257</v>
+        <v>54435</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83103</v>
+        <v>83460</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2500667536942173</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2025899607139959</v>
+        <v>0.1995769612985294</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3046856288115813</v>
+        <v>0.3059949187304354</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>149</v>
@@ -2326,19 +2326,19 @@
         <v>157929</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>134883</v>
+        <v>136234</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>181090</v>
+        <v>181545</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2302181144391914</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1966234750591453</v>
+        <v>0.1985925947369536</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2639802514768144</v>
+        <v>0.2646436420269271</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>323523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>305092</v>
+        <v>306817</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>340769</v>
+        <v>337448</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7828824128787799</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7382824708469332</v>
+        <v>0.7424568305075626</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8246159750997873</v>
+        <v>0.8165797720824224</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>198</v>
@@ -2376,19 +2376,19 @@
         <v>204545</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>189648</v>
+        <v>189291</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>217494</v>
+        <v>218316</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7499332463057827</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6953143711884188</v>
+        <v>0.6940050812695647</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7974100392860044</v>
+        <v>0.8004230387014709</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>488</v>
@@ -2397,19 +2397,19 @@
         <v>528068</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>504907</v>
+        <v>504452</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>551114</v>
+        <v>549763</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7697818855608086</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7360197485231855</v>
+        <v>0.7353563579730729</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8033765249408547</v>
+        <v>0.8014074052630463</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>123926</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>104415</v>
+        <v>104168</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143376</v>
+        <v>143846</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3416117168690143</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2878278720076106</v>
+        <v>0.2871452885243221</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3952269890778507</v>
+        <v>0.3965221155148541</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>95</v>
@@ -2522,19 +2522,19 @@
         <v>95242</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79197</v>
+        <v>80484</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>109940</v>
+        <v>110909</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3533713843899196</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2938402310633745</v>
+        <v>0.2986138724375069</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4079026377533676</v>
+        <v>0.4114992294744762</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>203</v>
@@ -2543,19 +2543,19 @@
         <v>219169</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>193334</v>
+        <v>194152</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>243272</v>
+        <v>245096</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3466244400206037</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3057655627503025</v>
+        <v>0.3070589616867714</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3847452385960203</v>
+        <v>0.3876294616379521</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>238844</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>219394</v>
+        <v>218924</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>258355</v>
+        <v>258602</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6583882831309857</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6047730109221494</v>
+        <v>0.6034778844851458</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7121721279923896</v>
+        <v>0.7128547114756778</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>169</v>
@@ -2593,19 +2593,19 @@
         <v>174282</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>159584</v>
+        <v>158615</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>190327</v>
+        <v>189040</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6466286156100804</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5920973622466322</v>
+        <v>0.5885007705255237</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7061597689366254</v>
+        <v>0.7013861275624931</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>387</v>
@@ -2614,19 +2614,19 @@
         <v>413125</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>389022</v>
+        <v>387198</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>438960</v>
+        <v>438142</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6533755599793962</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6152547614039796</v>
+        <v>0.6123705383620476</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6942344372496974</v>
+        <v>0.6929410383132284</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>72843</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57867</v>
+        <v>57678</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88731</v>
+        <v>89444</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1825634169879484</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1450307129802897</v>
+        <v>0.1445565525528494</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2223827802617827</v>
+        <v>0.2241700040503952</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>81</v>
@@ -2739,19 +2739,19 @@
         <v>86035</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71557</v>
+        <v>69752</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>103087</v>
+        <v>103124</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2643383755948205</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2198539136251619</v>
+        <v>0.2143079133110025</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3167299654502951</v>
+        <v>0.3168424601967026</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>151</v>
@@ -2760,19 +2760,19 @@
         <v>158878</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>137729</v>
+        <v>134818</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>183753</v>
+        <v>179113</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2193012526601609</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1901090452376045</v>
+        <v>0.186091156652648</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2536360183754179</v>
+        <v>0.2472320195750966</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>326158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>310270</v>
+        <v>309557</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>341134</v>
+        <v>341323</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8174365830120516</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7776172197382173</v>
+        <v>0.7758299959496048</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8549692870197103</v>
+        <v>0.8554434474471505</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>226</v>
@@ -2810,19 +2810,19 @@
         <v>239439</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>222387</v>
+        <v>222350</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>253917</v>
+        <v>255722</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7356616244051796</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6832700345497048</v>
+        <v>0.6831575398032974</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7801460863748381</v>
+        <v>0.7856920866889975</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>547</v>
@@ -2831,19 +2831,19 @@
         <v>565597</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>540722</v>
+        <v>545362</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>586746</v>
+        <v>589657</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7806987473398391</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7463639816245822</v>
+        <v>0.752767980424903</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8098909547623954</v>
+        <v>0.8139088433473516</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>343595</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>310307</v>
+        <v>310766</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>378156</v>
+        <v>376439</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2425940892849737</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2190915323097553</v>
+        <v>0.2194150384677822</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2669959674422638</v>
+        <v>0.2657834390605909</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>293</v>
@@ -2956,19 +2956,19 @@
         <v>297689</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>267777</v>
+        <v>271659</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>326753</v>
+        <v>328715</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2884629814004714</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2594779409927973</v>
+        <v>0.2632397326101238</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3166267874905435</v>
+        <v>0.3185282604490743</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>606</v>
@@ -2977,19 +2977,19 @@
         <v>641283</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>595754</v>
+        <v>600635</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>684101</v>
+        <v>689459</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.261928116416238</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2433321168799105</v>
+        <v>0.2453254466744883</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2794167233181518</v>
+        <v>0.2816053054998268</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>1072742</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1038181</v>
+        <v>1039898</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1106030</v>
+        <v>1105571</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7574059107150264</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7330040325577364</v>
+        <v>0.734216560939409</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7809084676902447</v>
+        <v>0.7805849615322178</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>715</v>
@@ -3027,19 +3027,19 @@
         <v>734293</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>705229</v>
+        <v>703267</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>764205</v>
+        <v>760323</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7115370185995286</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6833732125094566</v>
+        <v>0.6814717395509258</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7405220590072029</v>
+        <v>0.7367602673898761</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1719</v>
@@ -3048,19 +3048,19 @@
         <v>1807035</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1764217</v>
+        <v>1758859</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1852564</v>
+        <v>1847683</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7380718835837621</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7205832766818483</v>
+        <v>0.7183946945001731</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7566678831200896</v>
+        <v>0.7546745533255116</v>
       </c>
     </row>
     <row r="18">
